--- a/FundingForecastModel/QuarterlyForecasts/FI_Level/LVTS/Value/2022-01-14/ARIMA/BNDCCATxnValueForecastErrors.xlsx
+++ b/FundingForecastModel/QuarterlyForecasts/FI_Level/LVTS/Value/2022-01-14/ARIMA/BNDCCATxnValueForecastErrors.xlsx
@@ -12,10 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="171">
-  <si>
-    <t>FinancialInstitution</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
   <si>
     <t>x</t>
   </si>
@@ -272,259 +269,256 @@
     <t>84</t>
   </si>
   <si>
-    <t>BNDCCA</t>
-  </si>
-  <si>
-    <t>17.3921699168407</t>
-  </si>
-  <si>
-    <t>4.09411237197301</t>
-  </si>
-  <si>
-    <t>-17.4240105910658</t>
-  </si>
-  <si>
-    <t>4.52034648639736</t>
-  </si>
-  <si>
-    <t>-0.518701315123593</t>
-  </si>
-  <si>
-    <t>17.6520264662094</t>
-  </si>
-  <si>
-    <t>-12.0883999080109</t>
-  </si>
-  <si>
-    <t>2.65586794262407</t>
-  </si>
-  <si>
-    <t>-17.0761001069945</t>
-  </si>
-  <si>
-    <t>-11.3341721055072</t>
-  </si>
-  <si>
-    <t>-7.81299866866118</t>
-  </si>
-  <si>
-    <t>-5.8844642711837</t>
-  </si>
-  <si>
-    <t>2.5213023877552</t>
-  </si>
-  <si>
-    <t>-6.6125930526251</t>
-  </si>
-  <si>
-    <t>-6.21447400864682</t>
-  </si>
-  <si>
-    <t>-2.12762982545752</t>
-  </si>
-  <si>
-    <t>-0.947436272399017</t>
-  </si>
-  <si>
-    <t>2.09417325807112</t>
-  </si>
-  <si>
-    <t>-3.37048071716367</t>
-  </si>
-  <si>
-    <t>-6.44493408218651</t>
-  </si>
-  <si>
-    <t>6.25195178518166</t>
-  </si>
-  <si>
-    <t>4.08185515346699</t>
-  </si>
-  <si>
-    <t>-6.49962052400866</t>
-  </si>
-  <si>
-    <t>-8.52946081306479</t>
-  </si>
-  <si>
-    <t>9.30666867142105</t>
-  </si>
-  <si>
-    <t>6.1842954056151</t>
-  </si>
-  <si>
-    <t>-9.9330055481247</t>
-  </si>
-  <si>
-    <t>-6.02786534360848</t>
-  </si>
-  <si>
-    <t>-0.277912012723135</t>
-  </si>
-  <si>
-    <t>8.8478413051852</t>
-  </si>
-  <si>
-    <t>-4.36134965121283</t>
-  </si>
-  <si>
-    <t>-6.08556581694049</t>
-  </si>
-  <si>
-    <t>-6.88419349626818</t>
-  </si>
-  <si>
-    <t>-9.72802213492517</t>
-  </si>
-  <si>
-    <t>-2.12513482334475</t>
-  </si>
-  <si>
-    <t>-3.27495397415419</t>
-  </si>
-  <si>
-    <t>1.44123255561212</t>
-  </si>
-  <si>
-    <t>-0.0377424167635354</t>
-  </si>
-  <si>
-    <t>-4.11777288100768</t>
-  </si>
-  <si>
-    <t>-1.66439712258295</t>
-  </si>
-  <si>
-    <t>3.97491693038111</t>
-  </si>
-  <si>
-    <t>-7.00945280439771</t>
-  </si>
-  <si>
-    <t>4.020306218722</t>
-  </si>
-  <si>
-    <t>-1.11253566139445</t>
-  </si>
-  <si>
-    <t>4.41632335799909</t>
-  </si>
-  <si>
-    <t>-1.12777675653808</t>
-  </si>
-  <si>
-    <t>-1.00554004311371</t>
-  </si>
-  <si>
-    <t>-3.49451061304606</t>
-  </si>
-  <si>
-    <t>-3.61030725127577</t>
-  </si>
-  <si>
-    <t>2.89589380768135</t>
-  </si>
-  <si>
-    <t>-3.43984933897815</t>
-  </si>
-  <si>
-    <t>1.17046931999209</t>
-  </si>
-  <si>
-    <t>-0.718510603573606</t>
-  </si>
-  <si>
-    <t>-0.275220976335277</t>
-  </si>
-  <si>
-    <t>6.98114465494501</t>
-  </si>
-  <si>
-    <t>2.54973427924395</t>
-  </si>
-  <si>
-    <t>0.969315708771461</t>
-  </si>
-  <si>
-    <t>-2.75170102642662</t>
-  </si>
-  <si>
-    <t>1.20941568053442</t>
-  </si>
-  <si>
-    <t>-0.991855720818251</t>
-  </si>
-  <si>
-    <t>-9.29165086939139</t>
-  </si>
-  <si>
-    <t>4.45903855131289</t>
-  </si>
-  <si>
-    <t>-1.25975621123607</t>
-  </si>
-  <si>
-    <t>6.38738161053232</t>
-  </si>
-  <si>
-    <t>-2.48369708202893</t>
-  </si>
-  <si>
-    <t>-1.29615931461444</t>
-  </si>
-  <si>
-    <t>1.05041684129094</t>
-  </si>
-  <si>
-    <t>1.6421399547215</t>
-  </si>
-  <si>
-    <t>5.1221331443034</t>
-  </si>
-  <si>
-    <t>-6.85767032944446</t>
-  </si>
-  <si>
-    <t>2.51202052044582</t>
-  </si>
-  <si>
-    <t>0.396078756584984</t>
-  </si>
-  <si>
-    <t>-9.34342532210437</t>
-  </si>
-  <si>
-    <t>0.254974084294986</t>
-  </si>
-  <si>
-    <t>8.8144797463427</t>
-  </si>
-  <si>
-    <t>-1.63995501156862</t>
-  </si>
-  <si>
-    <t>-4.89096502351958</t>
-  </si>
-  <si>
-    <t>-39.2600757305114</t>
-  </si>
-  <si>
-    <t>22.0430828313125</t>
-  </si>
-  <si>
-    <t>21.5255653178627</t>
-  </si>
-  <si>
-    <t>1.71772977069622</t>
-  </si>
-  <si>
-    <t>5.48566354733029</t>
-  </si>
-  <si>
-    <t>3.55141437613099</t>
-  </si>
-  <si>
-    <t>16.7612117734649</t>
+    <t>0.537691148715908</t>
+  </si>
+  <si>
+    <t>8.49412017623388</t>
+  </si>
+  <si>
+    <t>-37.8724096478867</t>
+  </si>
+  <si>
+    <t>-28.3309070085726</t>
+  </si>
+  <si>
+    <t>49.976859099748</t>
+  </si>
+  <si>
+    <t>-29.4967371344412</t>
+  </si>
+  <si>
+    <t>7.18007130579315</t>
+  </si>
+  <si>
+    <t>-94.9883955416173</t>
+  </si>
+  <si>
+    <t>2.85481531417861</t>
+  </si>
+  <si>
+    <t>72.1179620020137</t>
+  </si>
+  <si>
+    <t>-65.2050045400953</t>
+  </si>
+  <si>
+    <t>-6.11950989868512</t>
+  </si>
+  <si>
+    <t>-57.0362654995549</t>
+  </si>
+  <si>
+    <t>12.6987521575684</t>
+  </si>
+  <si>
+    <t>-106.735630652252</t>
+  </si>
+  <si>
+    <t>14.0688272451887</t>
+  </si>
+  <si>
+    <t>63.7476827470542</t>
+  </si>
+  <si>
+    <t>93.6203251017025</t>
+  </si>
+  <si>
+    <t>91.9900836599122</t>
+  </si>
+  <si>
+    <t>-108.423022882419</t>
+  </si>
+  <si>
+    <t>27.1422426070534</t>
+  </si>
+  <si>
+    <t>-76.1174592085912</t>
+  </si>
+  <si>
+    <t>28.7108229684803</t>
+  </si>
+  <si>
+    <t>-109.789671091701</t>
+  </si>
+  <si>
+    <t>57.3954377142481</t>
+  </si>
+  <si>
+    <t>-83.6715100002825</t>
+  </si>
+  <si>
+    <t>25.7728518206128</t>
+  </si>
+  <si>
+    <t>67.1698219810635</t>
+  </si>
+  <si>
+    <t>-45.3060363494177</t>
+  </si>
+  <si>
+    <t>15.8153797258441</t>
+  </si>
+  <si>
+    <t>1.96705116554426</t>
+  </si>
+  <si>
+    <t>-7.52736908647444</t>
+  </si>
+  <si>
+    <t>-27.2534501349944</t>
+  </si>
+  <si>
+    <t>50.9152510236636</t>
+  </si>
+  <si>
+    <t>-124.724613967949</t>
+  </si>
+  <si>
+    <t>88.1207946371678</t>
+  </si>
+  <si>
+    <t>-162.242767217335</t>
+  </si>
+  <si>
+    <t>88.9034513328363</t>
+  </si>
+  <si>
+    <t>-237.013074718892</t>
+  </si>
+  <si>
+    <t>4.10221193099426</t>
+  </si>
+  <si>
+    <t>-57.8959013732004</t>
+  </si>
+  <si>
+    <t>-2.34669005214766</t>
+  </si>
+  <si>
+    <t>-73.5069949093701</t>
+  </si>
+  <si>
+    <t>119.297914053966</t>
+  </si>
+  <si>
+    <t>-41.8873487431915</t>
+  </si>
+  <si>
+    <t>-95.6575119709971</t>
+  </si>
+  <si>
+    <t>-52.6088930525553</t>
+  </si>
+  <si>
+    <t>-39.8711043840625</t>
+  </si>
+  <si>
+    <t>-46.4832859536438</t>
+  </si>
+  <si>
+    <t>-63.3192745345106</t>
+  </si>
+  <si>
+    <t>-47.3742078745446</t>
+  </si>
+  <si>
+    <t>54.831921687877</t>
+  </si>
+  <si>
+    <t>11.9918218559179</t>
+  </si>
+  <si>
+    <t>-33.6486393681602</t>
+  </si>
+  <si>
+    <t>-52.1519715107145</t>
+  </si>
+  <si>
+    <t>-85.0964164632511</t>
+  </si>
+  <si>
+    <t>54.0974959934256</t>
+  </si>
+  <si>
+    <t>7.2415140744107</t>
+  </si>
+  <si>
+    <t>106.478346446623</t>
+  </si>
+  <si>
+    <t>-62.2263271629008</t>
+  </si>
+  <si>
+    <t>-80.0399369799798</t>
+  </si>
+  <si>
+    <t>-20.1047971779169</t>
+  </si>
+  <si>
+    <t>104.314803390544</t>
+  </si>
+  <si>
+    <t>-104.788214329906</t>
+  </si>
+  <si>
+    <t>-39.086009506637</t>
+  </si>
+  <si>
+    <t>-132.640159665481</t>
+  </si>
+  <si>
+    <t>60.6760721309017</t>
+  </si>
+  <si>
+    <t>-55.5190459808724</t>
+  </si>
+  <si>
+    <t>28.1696172804378</t>
+  </si>
+  <si>
+    <t>-63.4536256240233</t>
+  </si>
+  <si>
+    <t>82.3660936675597</t>
+  </si>
+  <si>
+    <t>-17.4117452759515</t>
+  </si>
+  <si>
+    <t>-63.0029146482427</t>
+  </si>
+  <si>
+    <t>83.9767492036892</t>
+  </si>
+  <si>
+    <t>71.8718085164553</t>
+  </si>
+  <si>
+    <t>-77.3004074159926</t>
+  </si>
+  <si>
+    <t>100.061191884041</t>
+  </si>
+  <si>
+    <t>581.237926969825</t>
+  </si>
+  <si>
+    <t>379.200192975053</t>
+  </si>
+  <si>
+    <t>66.2668961191343</t>
+  </si>
+  <si>
+    <t>499.371621581489</t>
+  </si>
+  <si>
+    <t>-440.59890539374</t>
+  </si>
+  <si>
+    <t>-307.049681051117</t>
+  </si>
+  <si>
+    <t>279.546188291692</t>
   </si>
 </sst>
 </file>
@@ -580,932 +574,677 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>86</v>
       </c>
-      <c r="C3" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
-      </c>
-      <c r="C36" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
-      </c>
-      <c r="C37" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
-      </c>
-      <c r="C39" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
-      </c>
-      <c r="C40" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>86</v>
-      </c>
-      <c r="C41" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
-      </c>
-      <c r="C45" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>86</v>
-      </c>
-      <c r="C46" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
-      </c>
-      <c r="C47" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>86</v>
-      </c>
-      <c r="C48" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>86</v>
-      </c>
-      <c r="C49" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>86</v>
-      </c>
-      <c r="C50" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>86</v>
-      </c>
-      <c r="C51" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>86</v>
-      </c>
-      <c r="C52" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>86</v>
-      </c>
-      <c r="C53" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>86</v>
-      </c>
-      <c r="C54" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>86</v>
-      </c>
-      <c r="C55" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>86</v>
-      </c>
-      <c r="C57" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>86</v>
-      </c>
-      <c r="C58" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>86</v>
-      </c>
-      <c r="C59" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>86</v>
-      </c>
-      <c r="C60" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>86</v>
-      </c>
-      <c r="C61" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>86</v>
-      </c>
-      <c r="C62" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>86</v>
-      </c>
-      <c r="C63" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>86</v>
-      </c>
-      <c r="C64" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>86</v>
-      </c>
-      <c r="C65" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>86</v>
-      </c>
-      <c r="C66" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>86</v>
-      </c>
-      <c r="C67" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>86</v>
-      </c>
-      <c r="C68" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>86</v>
-      </c>
-      <c r="C69" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>86</v>
-      </c>
-      <c r="C70" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>86</v>
-      </c>
-      <c r="C71" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>86</v>
-      </c>
-      <c r="C72" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>86</v>
-      </c>
-      <c r="C73" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>86</v>
-      </c>
-      <c r="C74" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>86</v>
-      </c>
-      <c r="C75" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>86</v>
-      </c>
-      <c r="C76" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>86</v>
-      </c>
-      <c r="C77" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>86</v>
-      </c>
-      <c r="C78" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>86</v>
-      </c>
-      <c r="C79" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>86</v>
-      </c>
-      <c r="C80" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>86</v>
-      </c>
-      <c r="C81" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>86</v>
-      </c>
-      <c r="C82" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>86</v>
-      </c>
-      <c r="C83" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
-      </c>
-      <c r="C84" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>86</v>
-      </c>
-      <c r="C85" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
